--- a/dados_treino.xlsx
+++ b/dados_treino.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alinsperedu-my.sharepoint.com/personal/mateusmcf_al_insper_edu_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mateus Marinhero\Documents\Insper\2023\2o Semestre\Ciência dos Dados\Projeto1\Projeto-1-C-Dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B1BB5B2-C590-4A3C-B0FE-99EE93658948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6221E03-F6BA-4609-8287-039FF82525DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -948,7 +948,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1356,19 +1356,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D305"/>
+  <dimension ref="A1:D304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A282" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D307" sqref="D307"/>
+    <sheetView tabSelected="1" topLeftCell="A285" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D304" sqref="D304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>22</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>23</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>24</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>25</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>27</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>28</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>30</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>31</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>32</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>34</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>36</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>37</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>38</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>39</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>40</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>41</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>42</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>43</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>44</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>45</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>46</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>47</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>49</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>50</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>51</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>53</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>54</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>55</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>56</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>57</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>58</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>59</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>60</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>61</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>62</v>
       </c>
@@ -1848,7 +1848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>63</v>
       </c>
@@ -1856,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>64</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>65</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>66</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>67</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>68</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>69</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>70</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>71</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>72</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>73</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>74</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>75</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>76</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>77</v>
       </c>
@@ -1968,7 +1968,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>78</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>79</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>80</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>81</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>82</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>83</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>84</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>85</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>86</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>87</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>88</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>89</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>90</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>91</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>92</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>93</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>94</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>95</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>96</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>97</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>98</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>99</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>100</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>101</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>102</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>103</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>104</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>105</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>106</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>107</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>108</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>109</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>110</v>
       </c>
@@ -2232,7 +2232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>111</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>112</v>
       </c>
@@ -2248,7 +2248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>113</v>
       </c>
@@ -2256,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>114</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>115</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>116</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>117</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>118</v>
       </c>
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>119</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>120</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>121</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>122</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>123</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>124</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>125</v>
       </c>
@@ -2352,7 +2352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>126</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>127</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>128</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>129</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>130</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>131</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>132</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>133</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>134</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>135</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>136</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>137</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>138</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>139</v>
       </c>
@@ -2464,7 +2464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>140</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>141</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>142</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>143</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>144</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>145</v>
       </c>
@@ -2512,7 +2512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>146</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>147</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>148</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>149</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>150</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>151</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>152</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>153</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>154</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>155</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>156</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>157</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>158</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>159</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>160</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>161</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>162</v>
       </c>
@@ -2648,7 +2648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>163</v>
       </c>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>164</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>165</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>166</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>167</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>168</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>169</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>170</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>171</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>172</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>173</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>174</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>175</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>176</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>177</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>178</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>179</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>180</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>181</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>182</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>183</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>184</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>185</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>186</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>187</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>188</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>189</v>
       </c>
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>190</v>
       </c>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>191</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>192</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>193</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>194</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>195</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>196</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>197</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>198</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>199</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>200</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>201</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>202</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>203</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>204</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>205</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>206</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>207</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>208</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>209</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>210</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>211</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>212</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>213</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>214</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>215</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>216</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>217</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>218</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>219</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>220</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>221</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>222</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>223</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>224</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>225</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>226</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>227</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>228</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>229</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>230</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>231</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>232</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>233</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>234</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>235</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>236</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>237</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>238</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>239</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>240</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>241</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>242</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>243</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>244</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>245</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>246</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>247</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>248</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>249</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>250</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>251</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>252</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>253</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="1:2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>254</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="253" spans="1:2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>255</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>256</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>257</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>258</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>259</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>260</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>261</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>262</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>263</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>264</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>265</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>266</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="1:2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" s="7" t="s">
         <v>267</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" s="7" t="s">
         <v>268</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" s="7" t="s">
         <v>269</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" s="7" t="s">
         <v>270</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" s="7" t="s">
         <v>271</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" s="7" t="s">
         <v>272</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="271" spans="1:2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" s="7" t="s">
         <v>273</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>274</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>275</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>276</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="C274" s="4"/>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>277</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>278</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>279</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>280</v>
       </c>
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="279" spans="1:3">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>281</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="280" spans="1:3">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>282</v>
       </c>
@@ -3609,7 +3609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="281" spans="1:3">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>283</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="282" spans="1:3">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>144</v>
       </c>
@@ -3625,7 +3625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:3">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" s="7" t="s">
         <v>284</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="1:3">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" s="7" t="s">
         <v>285</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:3">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" s="7" t="s">
         <v>286</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="1:3">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" s="7" t="s">
         <v>287</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:3">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" s="7" t="s">
         <v>288</v>
       </c>
@@ -3665,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="288" spans="1:3">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" s="7" t="s">
         <v>289</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" s="7" t="s">
         <v>290</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" s="7" t="s">
         <v>291</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" s="7" t="s">
         <v>292</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" s="7" t="s">
         <v>293</v>
       </c>
@@ -3705,7 +3705,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" s="7" t="s">
         <v>294</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" s="7" t="s">
         <v>295</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" s="7" t="s">
         <v>296</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" s="7" t="s">
         <v>297</v>
       </c>
@@ -3737,7 +3737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" s="7" t="s">
         <v>298</v>
       </c>
@@ -3745,7 +3745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" s="7" t="s">
         <v>299</v>
       </c>
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" s="7" t="s">
         <v>300</v>
       </c>
@@ -3761,7 +3761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" s="7" t="s">
         <v>301</v>
       </c>
@@ -3769,7 +3769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" s="7" t="s">
         <v>302</v>
       </c>
@@ -3777,20 +3777,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C303" s="9"/>
     </row>
-    <row r="304" spans="1:4">
-      <c r="D304" s="9">
-        <f>COUNTIF(B2:B301, "Relevante")</f>
-        <v>147</v>
-      </c>
-    </row>
-    <row r="305" spans="4:4">
-      <c r="D305">
-        <f>COUNTIF(B2:B283, "Irrelevante")</f>
-        <v>153</v>
-      </c>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D304" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3798,6 +3789,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBA3F78CEF1CA541A1B93B4F9B0D4715" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6fbd0005ece93766e0450ec58f6f89bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bd61af73-7999-4cce-802c-efc978926a1d" xmlns:ns4="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8b0d6b5d1346e762088ef2cf790d56a" ns3:_="" ns4:_="">
     <xsd:import namespace="bd61af73-7999-4cce-802c-efc978926a1d"/>
@@ -4012,31 +4020,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="bd61af73-7999-4cce-802c-efc978926a1d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129D4221-9BA5-4F01-A755-D3EC4D0FF562}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73B02BD-117D-4A35-B9CE-6FC7738082BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE7C1-DCFD-49DA-BC62-6C5FF0AE73BE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69AAE7C1-DCFD-49DA-BC62-6C5FF0AE73BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B73B02BD-117D-4A35-B9CE-6FC7738082BD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129D4221-9BA5-4F01-A755-D3EC4D0FF562}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd61af73-7999-4cce-802c-efc978926a1d"/>
+    <ds:schemaRef ds:uri="ee918b65-cae3-47bc-8c3b-c1f3bd6f0a29"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>